--- a/xlsx/outdoor.xlsx
+++ b/xlsx/outdoor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bd6ffaf480ac5cc/Office/pokeredCHS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Developer/PKMN_G1/pokeredCHS/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="635" documentId="11_BDF32760AACE39844B539F32D8A8146C7513458C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E0E6982-AE04-6342-8B2D-231D33479416}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0689E4F8-375A-E241-B228-2CA2EDDE2BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="760" windowWidth="22400" windowHeight="20460" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1880" windowWidth="22400" windowHeight="20460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PalletTown" sheetId="1" r:id="rId1"/>
@@ -9010,15 +9010,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>你怎么也来这里了？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>就让我来看看</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>而且还鬼鬼祟祟的！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -9583,6 +9575,14 @@
   </si>
   <si>
     <t>NELO, SYLVEON</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在这儿转来转去的，</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是要干什么呀？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -9717,10 +9717,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10142,7 +10138,7 @@
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -10159,7 +10155,7 @@
         <v>2939</v>
       </c>
       <c r="I8" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>28</v>
@@ -10185,10 +10181,10 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="I9" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
@@ -10208,7 +10204,7 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="I10" t="s">
         <v>37</v>
@@ -10819,7 +10815,7 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>141</v>
@@ -10845,7 +10841,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="K48" s="1"/>
     </row>
@@ -11955,7 +11951,7 @@
         <v>35</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>2742</v>
@@ -11972,7 +11968,7 @@
         <v>35</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" t="s">
@@ -12070,7 +12066,7 @@
         <v>35</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>2756</v>
@@ -12087,7 +12083,7 @@
         <v>35</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>2760</v>
@@ -12346,7 +12342,7 @@
         <v>35</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>2791</v>
@@ -12685,7 +12681,7 @@
         <v>14</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>2823</v>
@@ -12714,7 +12710,7 @@
         <v>35</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>2828</v>
@@ -13147,7 +13143,7 @@
         <v>35</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>2874</v>
@@ -13362,7 +13358,7 @@
         <v>46</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>935</v>
@@ -13382,7 +13378,7 @@
         <v>14</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="I134" s="4"/>
       <c r="J134" s="1" t="s">
@@ -13578,7 +13574,7 @@
         <v>7</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="I149" s="4"/>
       <c r="J149" s="1" t="s">
@@ -13605,7 +13601,7 @@
         <v>14</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="I150" s="3" t="s">
         <v>2902</v>
@@ -13946,7 +13942,7 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="I14" t="s">
         <v>190</v>
@@ -13975,7 +13971,7 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="I15" t="s">
         <v>194</v>
@@ -14152,7 +14148,7 @@
         <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="I27" t="s">
         <v>219</v>
@@ -14366,7 +14362,7 @@
         <v>46</v>
       </c>
       <c r="G41" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
       <c r="I41" t="s">
         <v>242</v>
@@ -14386,7 +14382,7 @@
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -14605,7 +14601,7 @@
         <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="I55" t="s">
         <v>292</v>
@@ -14632,7 +14628,7 @@
         <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="I56" t="s">
         <v>295</v>
@@ -15328,10 +15324,10 @@
         <v>424</v>
       </c>
       <c r="E97" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="I97" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -15345,7 +15341,7 @@
         <v>7</v>
       </c>
       <c r="G98" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>426</v>
@@ -15872,7 +15868,7 @@
         <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="I127" t="s">
         <v>541</v>
@@ -15892,7 +15888,7 @@
         <v>14</v>
       </c>
       <c r="G128" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="K128" t="s">
         <v>544</v>
@@ -16136,7 +16132,7 @@
         <v>14</v>
       </c>
       <c r="G144" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>589</v>
@@ -16162,7 +16158,7 @@
         <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="K145" s="1"/>
     </row>
@@ -16386,7 +16382,7 @@
         <v>7</v>
       </c>
       <c r="G161" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>635</v>
@@ -16481,7 +16477,7 @@
         <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="J165" s="1"/>
       <c r="K165" s="1" t="s">
@@ -16560,7 +16556,7 @@
         <v>14</v>
       </c>
       <c r="G169" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
       <c r="I169" t="s">
         <v>667</v>
@@ -16587,7 +16583,7 @@
         <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="I170" t="s">
         <v>671</v>
@@ -17119,7 +17115,7 @@
         <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="I15" t="s">
         <v>754</v>
@@ -17136,7 +17132,7 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="I16" t="s">
         <v>755</v>
@@ -18403,7 +18399,7 @@
         <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="I93" t="s">
         <v>951</v>
@@ -18432,7 +18428,7 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="I94" t="s">
         <v>955</v>
@@ -18749,7 +18745,7 @@
         <v>14</v>
       </c>
       <c r="G116" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="I116" t="s">
         <v>1000</v>
@@ -18778,7 +18774,7 @@
         <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>1004</v>
@@ -18810,8 +18806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M237"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -18934,7 +18930,7 @@
         <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>2970</v>
+        <v>3101</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>1022</v>
@@ -18960,7 +18956,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>2972</v>
+        <v>3102</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>1026</v>
@@ -19093,7 +19089,7 @@
         <v>46</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="I15" t="s">
         <v>1052</v>
@@ -19402,7 +19398,7 @@
         <v>721</v>
       </c>
       <c r="I34" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>1088</v>
@@ -19419,7 +19415,7 @@
     </row>
     <row r="35" spans="2:13">
       <c r="I35" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" t="s">
@@ -19439,10 +19435,10 @@
         <v>46</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="I36" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>1093</v>
@@ -19465,7 +19461,7 @@
         <v>14</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="I37" t="s">
         <v>1097</v>
@@ -19491,7 +19487,7 @@
         <v>35</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="I38" t="s">
         <v>1102</v>
@@ -19918,7 +19914,7 @@
         <v>7</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="I63" t="s">
         <v>1184</v>
@@ -19947,7 +19943,7 @@
         <v>14</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="I64" t="s">
         <v>1188</v>
@@ -20275,10 +20271,10 @@
         <v>1230</v>
       </c>
       <c r="E84" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="I84" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -20292,7 +20288,7 @@
         <v>7</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="J85" t="s">
         <v>1232</v>
@@ -20318,7 +20314,7 @@
         <v>46</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="K86" t="s">
         <v>1236</v>
@@ -20332,10 +20328,10 @@
         <v>14</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="I87" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="J87" t="s">
         <v>1238</v>
@@ -20358,7 +20354,7 @@
         <v>77</v>
       </c>
       <c r="I88" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="J88" t="s">
         <v>1242</v>
@@ -20437,7 +20433,7 @@
         <v>14</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="I94" t="s">
         <v>1256</v>
@@ -20466,7 +20462,7 @@
         <v>35</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
@@ -20984,7 +20980,7 @@
         <v>14</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="I128" t="s">
         <v>1336</v>
@@ -21030,7 +21026,7 @@
         <v>46</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="I130" t="s">
         <v>1342</v>
@@ -21584,7 +21580,7 @@
         <v>14</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="I161" t="s">
         <v>1413</v>
@@ -21602,7 +21598,7 @@
         <v>35</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>1413</v>
@@ -22064,7 +22060,7 @@
         <v>1488</v>
       </c>
       <c r="E195" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="K195" t="s">
         <v>1490</v>
@@ -22113,7 +22109,7 @@
         <v>14</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="I197" t="s">
         <v>1494</v>
@@ -22142,7 +22138,7 @@
         <v>35</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="I198" t="s">
         <v>1500</v>
@@ -22310,7 +22306,7 @@
         <v>14</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>1526</v>
@@ -22336,7 +22332,7 @@
         <v>35</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="K210" s="1"/>
     </row>
@@ -22804,7 +22800,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="I3" t="s">
         <v>1571</v>
@@ -22833,7 +22829,7 @@
         <v>2929</v>
       </c>
       <c r="G4" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="I4" t="s">
         <v>1575</v>
@@ -23476,7 +23472,7 @@
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="I43" t="s">
         <v>1677</v>
@@ -23505,7 +23501,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="K44" s="1"/>
     </row>
@@ -23559,7 +23555,7 @@
         <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>574</v>
@@ -23964,7 +23960,7 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>1745</v>
@@ -23990,7 +23986,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -24128,7 +24124,7 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>1768</v>
@@ -24154,7 +24150,7 @@
         <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>1774</v>
@@ -24264,10 +24260,10 @@
         <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>1794</v>
@@ -24290,7 +24286,7 @@
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>1799</v>
@@ -24863,7 +24859,7 @@
         <v>46</v>
       </c>
       <c r="G65" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="J65" t="s">
         <v>1469</v>
@@ -24889,7 +24885,7 @@
         <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="J66" t="s">
         <v>1475</v>
@@ -25292,7 +25288,7 @@
         <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>1931</v>
@@ -25318,7 +25314,7 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="K94" s="1"/>
     </row>
@@ -25383,7 +25379,7 @@
         <v>46</v>
       </c>
       <c r="G100" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>1830</v>
@@ -25409,7 +25405,7 @@
         <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>1834</v>
@@ -25608,7 +25604,7 @@
         <v>14</v>
       </c>
       <c r="G113" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>1951</v>
@@ -25634,7 +25630,7 @@
         <v>2943</v>
       </c>
       <c r="G114" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="K114" s="1"/>
     </row>
@@ -25646,7 +25642,7 @@
         <v>2929</v>
       </c>
       <c r="G115" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -26552,7 +26548,7 @@
         <v>46</v>
       </c>
       <c r="G39" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="I39" t="s">
         <v>462</v>
@@ -26575,7 +26571,7 @@
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="I40" t="s">
         <v>465</v>
@@ -26678,13 +26674,13 @@
         <v>2054</v>
       </c>
       <c r="C46" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
       <c r="F46" t="s">
         <v>2054</v>
       </c>
       <c r="G46" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -26860,7 +26856,7 @@
         <v>2084</v>
       </c>
       <c r="I57" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="J57" t="s">
         <v>2085</v>
@@ -26936,10 +26932,10 @@
         <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="I62" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="J62" t="s">
         <v>2098</v>
@@ -27687,7 +27683,7 @@
         <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>2218</v>
@@ -27713,7 +27709,7 @@
         <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="K109" s="1"/>
     </row>
@@ -28443,7 +28439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" zoomScale="117" workbookViewId="0">
+    <sheetView topLeftCell="C24" zoomScale="117" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
@@ -28530,7 +28526,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="I4" t="s">
         <v>2314</v>
@@ -28644,7 +28640,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="I10" t="s">
         <v>2339</v>
@@ -28673,7 +28669,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="I11" t="s">
         <v>2344</v>
@@ -28727,7 +28723,7 @@
         <v>46</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="I14" t="s">
         <v>2348</v>
@@ -28745,7 +28741,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="I15" t="s">
         <v>2351</v>
@@ -28815,7 +28811,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="I21" t="s">
         <v>2365</v>
@@ -28844,7 +28840,7 @@
         <v>35</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="I22" t="s">
         <v>2370</v>
@@ -29016,7 +29012,7 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
       <c r="J32" t="s">
         <v>2383</v>
@@ -29036,7 +29032,7 @@
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="34" spans="2:13">
@@ -29044,7 +29040,7 @@
         <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="15">
@@ -29055,7 +29051,7 @@
         <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="J35" t="s">
         <v>2387</v>
@@ -29075,7 +29071,7 @@
         <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="37" spans="2:13">
@@ -29083,7 +29079,7 @@
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="15">
@@ -29091,7 +29087,7 @@
         <v>46</v>
       </c>
       <c r="G38" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="39" spans="2:13">
@@ -29099,7 +29095,7 @@
         <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>3101</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="40" spans="2:13">
@@ -29107,7 +29103,7 @@
         <v>46</v>
       </c>
       <c r="G40" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="41" spans="2:13">
@@ -29115,7 +29111,7 @@
         <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="K41" t="s">
         <v>2391</v>
@@ -29126,7 +29122,7 @@
         <v>46</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="43" spans="2:13">
@@ -29134,7 +29130,7 @@
         <v>14</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="44" spans="2:13">
@@ -29142,7 +29138,7 @@
         <v>2928</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="45" spans="2:13">
@@ -29150,7 +29146,7 @@
         <v>46</v>
       </c>
       <c r="G45" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="46" spans="2:13">
@@ -29158,7 +29154,7 @@
         <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="47" spans="2:13">
@@ -29216,7 +29212,7 @@
         <v>14</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>2399</v>
@@ -29242,7 +29238,7 @@
         <v>35</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="I52" t="s">
         <v>2395</v>
@@ -29714,7 +29710,7 @@
         <v>14</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="I83" t="s">
         <v>2446</v>
@@ -30687,7 +30683,7 @@
         <v>2548</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="J3" t="s">
         <v>2549</v>
@@ -30805,7 +30801,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>2571</v>
@@ -30832,7 +30828,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>2575</v>
@@ -30933,7 +30929,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>2585</v>
@@ -30962,7 +30958,7 @@
         <v>35</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>2587</v>
@@ -31053,7 +31049,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>2596</v>
@@ -31082,7 +31078,7 @@
         <v>35</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="I24" s="4"/>
       <c r="K24" s="1"/>
